--- a/SEP490_API/wwwroot/Templates/template_schedule.xlsx
+++ b/SEP490_API/wwwroot/Templates/template_schedule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repo\SEP490_BE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repo\SEP490_BE\SEP490_API\wwwroot\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF29C63-634F-4A0E-AF43-9F454BA3CED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A74777-DB7E-4DF0-ADE2-C02C5A0807A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1125" windowWidth="29040" windowHeight="15720" xr2:uid="{1217BF2B-6CD0-4A14-B2A5-7D8E68CE3733}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="56">
   <si>
     <t>Năm học</t>
   </si>
@@ -164,9 +164,6 @@
     <t>gdqpan</t>
   </si>
   <si>
-    <t>homeroomteacher</t>
-  </si>
-  <si>
     <t>Ngày bắt đầu</t>
   </si>
   <si>
@@ -195,6 +192,18 @@
   </si>
   <si>
     <t>16/09/2024</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>homeroomteacher12</t>
+  </si>
+  <si>
+    <t>homeroomteacher23</t>
+  </si>
+  <si>
+    <t>homeroomteacher34</t>
   </si>
 </sst>
 </file>
@@ -556,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10289981-871F-4D91-BE02-DF222E18DE84}">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,20 +597,20 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -651,7 +660,7 @@
         <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -761,7 +770,7 @@
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -772,7 +781,7 @@
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -783,7 +792,7 @@
         <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -967,21 +976,21 @@
     <row r="35" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B36" s="1"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B38" t="s">
         <v>15</v>
@@ -1031,7 +1040,7 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1130,7 +1139,7 @@
         <v>15</v>
       </c>
       <c r="C51" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -1141,7 +1150,7 @@
         <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -1152,7 +1161,7 @@
         <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -1336,8 +1345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85068519-3CC4-41DA-B503-13258ADA06CA}">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51:C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1355,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1368,20 +1377,20 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -1431,7 +1440,7 @@
         <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1541,7 +1550,7 @@
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1552,7 +1561,7 @@
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1563,7 +1572,7 @@
         <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1747,21 +1756,21 @@
     <row r="35" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B38" t="s">
         <v>15</v>
@@ -1811,7 +1820,7 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1910,7 +1919,7 @@
         <v>15</v>
       </c>
       <c r="C51" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -1921,7 +1930,7 @@
         <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -1932,7 +1941,7 @@
         <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -2116,8 +2125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99FB273F-AC51-4F53-BED0-5EF6C8B760BC}">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C51" sqref="C51:C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2135,7 +2144,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2148,20 +2157,20 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -2211,7 +2220,7 @@
         <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2321,7 +2330,7 @@
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2332,7 +2341,7 @@
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2343,7 +2352,7 @@
         <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2527,21 +2536,21 @@
     <row r="35" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B38" t="s">
         <v>15</v>
@@ -2591,7 +2600,7 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2690,7 +2699,7 @@
         <v>15</v>
       </c>
       <c r="C51" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2701,7 +2710,7 @@
         <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2712,7 +2721,7 @@
         <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">

--- a/SEP490_API/wwwroot/Templates/template_schedule.xlsx
+++ b/SEP490_API/wwwroot/Templates/template_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repo\SEP490_BE\SEP490_API\wwwroot\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A74777-DB7E-4DF0-ADE2-C02C5A0807A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39524B87-1065-4379-87F7-D0187583C8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1125" windowWidth="29040" windowHeight="15720" xr2:uid="{1217BF2B-6CD0-4A14-B2A5-7D8E68CE3733}"/>
   </bookViews>
@@ -566,7 +566,7 @@
   <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SEP490_API/wwwroot/Templates/template_schedule.xlsx
+++ b/SEP490_API/wwwroot/Templates/template_schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repo\SEP490_BE\SEP490_API\wwwroot\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\temp\SEP490_BE\SEP490_API\wwwroot\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39524B87-1065-4379-87F7-D0187583C8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B5402F-E404-4C98-82BD-0586742D6739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1125" windowWidth="29040" windowHeight="15720" xr2:uid="{1217BF2B-6CD0-4A14-B2A5-7D8E68CE3733}"/>
+    <workbookView xWindow="4410" yWindow="4185" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{1217BF2B-6CD0-4A14-B2A5-7D8E68CE3733}"/>
   </bookViews>
   <sheets>
     <sheet name="12A1" sheetId="4" r:id="rId1"/>
@@ -122,9 +122,6 @@
     <t>HĐNGLL</t>
   </si>
   <si>
-    <t>2023-2024</t>
-  </si>
-  <si>
     <t>12A1</t>
   </si>
   <si>
@@ -204,6 +201,9 @@
   </si>
   <si>
     <t>homeroomteacher34</t>
+  </si>
+  <si>
+    <t>2024-2025</t>
   </si>
 </sst>
 </file>
@@ -565,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10289981-871F-4D91-BE02-DF222E18DE84}">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,7 +584,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -592,25 +592,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -627,7 +627,7 @@
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -638,7 +638,7 @@
         <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -649,7 +649,7 @@
         <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -660,7 +660,7 @@
         <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -671,7 +671,7 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -682,7 +682,7 @@
         <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -693,7 +693,7 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -704,7 +704,7 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -715,7 +715,7 @@
         <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -726,7 +726,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -737,7 +737,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -748,7 +748,7 @@
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -759,7 +759,7 @@
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -770,7 +770,7 @@
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -781,7 +781,7 @@
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -792,7 +792,7 @@
         <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -976,21 +976,21 @@
     <row r="35" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B36" s="1"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38" t="s">
         <v>15</v>
@@ -1007,7 +1007,7 @@
         <v>75</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1018,7 +1018,7 @@
         <v>45</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1029,7 +1029,7 @@
         <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1040,7 +1040,7 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1051,7 +1051,7 @@
         <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1062,7 +1062,7 @@
         <v>75</v>
       </c>
       <c r="C44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1073,7 +1073,7 @@
         <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1084,7 +1084,7 @@
         <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1095,7 +1095,7 @@
         <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1106,7 +1106,7 @@
         <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -1117,7 +1117,7 @@
         <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -1128,7 +1128,7 @@
         <v>30</v>
       </c>
       <c r="C50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -1139,7 +1139,7 @@
         <v>15</v>
       </c>
       <c r="C51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -1150,7 +1150,7 @@
         <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -1161,7 +1161,7 @@
         <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -1345,8 +1345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85068519-3CC4-41DA-B503-13258ADA06CA}">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51:C53"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1364,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1372,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -1407,7 +1407,7 @@
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1418,7 +1418,7 @@
         <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1429,7 +1429,7 @@
         <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1440,7 +1440,7 @@
         <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1451,7 +1451,7 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1462,7 +1462,7 @@
         <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1473,7 +1473,7 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1484,7 +1484,7 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1495,7 +1495,7 @@
         <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1506,7 +1506,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1517,7 +1517,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1528,7 +1528,7 @@
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1539,7 +1539,7 @@
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1550,7 +1550,7 @@
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1561,7 +1561,7 @@
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1572,7 +1572,7 @@
         <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1756,21 +1756,21 @@
     <row r="35" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38" t="s">
         <v>15</v>
@@ -1787,7 +1787,7 @@
         <v>75</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1798,7 +1798,7 @@
         <v>45</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1809,7 +1809,7 @@
         <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1820,7 +1820,7 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1831,7 +1831,7 @@
         <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1842,7 +1842,7 @@
         <v>75</v>
       </c>
       <c r="C44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1853,7 +1853,7 @@
         <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1864,7 +1864,7 @@
         <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1875,7 +1875,7 @@
         <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1886,7 +1886,7 @@
         <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -1897,7 +1897,7 @@
         <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -1908,7 +1908,7 @@
         <v>30</v>
       </c>
       <c r="C50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -1919,7 +1919,7 @@
         <v>15</v>
       </c>
       <c r="C51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -1930,7 +1930,7 @@
         <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -1941,7 +1941,7 @@
         <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -2125,8 +2125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99FB273F-AC51-4F53-BED0-5EF6C8B760BC}">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C51" sqref="C51:C53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2144,7 +2144,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2152,25 +2152,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -2187,7 +2187,7 @@
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2198,7 +2198,7 @@
         <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2209,7 +2209,7 @@
         <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2220,7 +2220,7 @@
         <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2231,7 +2231,7 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2242,7 +2242,7 @@
         <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2253,7 +2253,7 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2264,7 +2264,7 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -2275,7 +2275,7 @@
         <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -2286,7 +2286,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2297,7 +2297,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2308,7 +2308,7 @@
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2319,7 +2319,7 @@
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2330,7 +2330,7 @@
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2341,7 +2341,7 @@
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2352,7 +2352,7 @@
         <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2536,21 +2536,21 @@
     <row r="35" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38" t="s">
         <v>15</v>
@@ -2567,7 +2567,7 @@
         <v>75</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2578,7 +2578,7 @@
         <v>45</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2589,7 +2589,7 @@
         <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2600,7 +2600,7 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2611,7 +2611,7 @@
         <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2622,7 +2622,7 @@
         <v>75</v>
       </c>
       <c r="C44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2633,7 +2633,7 @@
         <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2644,7 +2644,7 @@
         <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2655,7 +2655,7 @@
         <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -2666,7 +2666,7 @@
         <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -2677,7 +2677,7 @@
         <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -2688,7 +2688,7 @@
         <v>30</v>
       </c>
       <c r="C50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -2699,7 +2699,7 @@
         <v>15</v>
       </c>
       <c r="C51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2710,7 +2710,7 @@
         <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2721,7 +2721,7 @@
         <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
